--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17255" windowHeight="6660"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>日期时间</t>
   </si>
@@ -23,6 +23,36 @@
   </si>
   <si>
     <t>姓名</t>
+  </si>
+  <si>
+    <t>2019/4/1 8:30:00--10:30</t>
+  </si>
+  <si>
+    <t>小组讨论项目实例题模块</t>
+  </si>
+  <si>
+    <t>娄梦月</t>
+  </si>
+  <si>
+    <t>宋明硕</t>
+  </si>
+  <si>
+    <t>张晓芳</t>
+  </si>
+  <si>
+    <t>缑曼曼</t>
+  </si>
+  <si>
+    <t>杨亚斌</t>
+  </si>
+  <si>
+    <t>谢国欣</t>
+  </si>
+  <si>
+    <t>张奔</t>
+  </si>
+  <si>
+    <t>肖森</t>
   </si>
 </sst>
 </file>
@@ -45,7 +75,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,14 +127,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,39 +148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,15 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +186,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -164,25 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,13 +227,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,37 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,103 +389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +430,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +467,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +518,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -496,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,19 +538,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,120 +559,126 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="34.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="29.6666666666667" customWidth="1"/>
@@ -987,14 +1023,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="15">
   <si>
     <t>日期时间</t>
   </si>
@@ -54,6 +54,12 @@
   <si>
     <t>肖森</t>
   </si>
+  <si>
+    <t>2019/4/3 9-12</t>
+  </si>
+  <si>
+    <t>数据库的配置及简单操作</t>
+  </si>
 </sst>
 </file>
 
@@ -75,59 +81,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,9 +103,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,8 +155,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,15 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -227,19 +233,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,157 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,21 +427,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -456,17 +481,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,32 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,145 +532,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,19 +1006,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="34.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,6 +1028,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -1108,6 +1117,814 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期时间</t>
   </si>
@@ -55,7 +55,10 @@
     <t>肖森</t>
   </si>
   <si>
-    <t>2019/4/3 9-12</t>
+    <t>2019/4/3 9:00-12:00</t>
+  </si>
+  <si>
+    <t>下载、配置数据库</t>
   </si>
   <si>
     <t>数据库的配置及简单操作</t>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,21 +84,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,68 +93,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,9 +113,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,22 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -233,79 +236,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,97 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,21 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,6 +455,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -483,15 +486,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -501,17 +495,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1012,7 @@
   <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1132,8 +1135,12 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -58,7 +58,7 @@
     <t>2019/4/3 9:00-12:00</t>
   </si>
   <si>
-    <t>下载、配置数据库</t>
+    <t>安装配置数据库</t>
   </si>
   <si>
     <t>数据库的配置及简单操作</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,29 +85,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +189,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -236,6 +236,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,126 +381,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,30 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +441,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +504,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -535,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20135" windowHeight="6660" activeTab="7"/>
+    <workbookView windowWidth="20135" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>日期时间</t>
   </si>
@@ -43,16 +43,22 @@
   <si>
     <t>数据库的配置及简单操作</t>
   </si>
+  <si>
+    <t>2019/4/4 20:30--22:30</t>
+  </si>
+  <si>
+    <t>安装数据库</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,6 +69,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -71,8 +99,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,30 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,90 +212,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -216,187 +222,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,9 +418,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,45 +453,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,19 +475,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,10 +521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,139 +533,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,37 +1000,38 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.8888888888889" customWidth="1"/>
-    <col min="2" max="4" width="26.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="32.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1037,36 +1047,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="34.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="29.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1082,28 +1092,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="30.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1119,28 +1129,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="24.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="32.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1156,28 +1166,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="37.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="29.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1193,28 +1203,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="45.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="33.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="45.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1230,33 +1240,38 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1269,29 +1284,29 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20135" windowHeight="6660"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>日期时间</t>
   </si>
@@ -44,6 +44,12 @@
     <t>数据库的配置及简单操作</t>
   </si>
   <si>
+    <t>2019/4/4 21:30--22:30</t>
+  </si>
+  <si>
+    <t>Mysql远程连接</t>
+  </si>
+  <si>
     <t>2019/4/4 20:30--22:30</t>
   </si>
   <si>
@@ -70,6 +76,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -77,7 +91,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,53 +151,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,8 +172,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,21 +434,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -453,6 +444,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,11 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,15 +501,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,16 +539,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,119 +557,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,9 +680,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,7 +1003,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1200,13 +1203,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="45.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.7777777777778" style="1" customWidth="1"/>
@@ -1226,6 +1229,14 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1266,11 +1277,11 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>日期时间</t>
   </si>
@@ -44,10 +44,16 @@
     <t>数据库的配置及简单操作</t>
   </si>
   <si>
-    <t>2019/4/4 21:30--22:30</t>
+    <t>2019/4/4 21:30--23:30</t>
   </si>
   <si>
     <t>Mysql远程连接</t>
+  </si>
+  <si>
+    <t>2019/4/5 20:30--22:30</t>
+  </si>
+  <si>
+    <t>了解类加载机制尝试了一下不同于域网下的数据库远程连接</t>
   </si>
   <si>
     <t>2019/4/4 20:30--22:30</t>
@@ -61,10 +67,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,8 +88,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,67 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,45 +224,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -234,67 +240,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,109 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,11 +430,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,39 +448,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +471,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +490,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,13 +1209,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="45.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.7777777777778" style="1" customWidth="1"/>
@@ -1237,6 +1243,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1278,10 +1292,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>日期时间</t>
   </si>
@@ -61,6 +61,9 @@
   <si>
     <t>安装数据库</t>
   </si>
+  <si>
+    <t>尝试数据库的远程连接</t>
+  </si>
 </sst>
 </file>
 
@@ -68,9 +71,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,12 +85,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -96,17 +169,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,32 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,67 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,15 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +470,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -493,11 +498,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,8 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1101,7 +1104,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1138,7 +1141,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1175,7 +1178,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1211,14 +1214,14 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="45.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1262,13 +1265,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
@@ -1296,6 +1299,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1321,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8E3CC-6639-46D2-8065-E02ECAC342D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4835B8-84AF-4730-8B81-99F225545066}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="8160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>日期时间</t>
   </si>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>尝试数据库的远程连接</t>
-  </si>
-  <si>
-    <t>2019/4/6 12:30--14:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装数据库</t>
@@ -85,12 +81,28 @@
     <t>数据库的简单操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2019/4/9 10:30--12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/8 16:00--18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/4 12:30--14:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +113,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +155,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +736,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,22 +766,39 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4835B8-84AF-4730-8B81-99F225545066}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>日期时间</t>
   </si>
@@ -50,6 +44,30 @@
     <t>数据库的配置及简单操作</t>
   </si>
   <si>
+    <t>2019/4/6 15:30--17:30</t>
+  </si>
+  <si>
+    <t>了解到Mysql  与SQL server 与Oracle 的区别</t>
+  </si>
+  <si>
+    <t>2019/4/7 14:30--16:30</t>
+  </si>
+  <si>
+    <t>学习了JDBC</t>
+  </si>
+  <si>
+    <t>2019/4/8 14:30--16:30</t>
+  </si>
+  <si>
+    <t>JDBC的简单编程</t>
+  </si>
+  <si>
+    <t>2019/4/9 8:30--10:30</t>
+  </si>
+  <si>
+    <t>了解类加载机制</t>
+  </si>
+  <si>
     <t>2019/4/4 21:30--23:30</t>
   </si>
   <si>
@@ -71,38 +89,35 @@
     <t>尝试数据库的远程连接</t>
   </si>
   <si>
-    <t>安装数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2019/4/4 12:30--14:31</t>
   </si>
   <si>
     <t>2019/4/6 12:30--14:32</t>
   </si>
   <si>
     <t>数据库的简单操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/8 16:00--18:30</t>
+  </si>
+  <si>
+    <t>尝试连接数据库</t>
   </si>
   <si>
     <t>2019/4/9 10:30--12:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/8 16:00--18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/4 12:30--14:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试连接数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +126,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -120,20 +136,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -141,13 +479,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,21 +737,68 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,26 +1056,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -464,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -473,26 +1100,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -517,26 +1145,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -553,26 +1182,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -589,26 +1219,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -624,27 +1255,60 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="45.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.3796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -660,43 +1324,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -712,43 +1377,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -764,41 +1430,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>日期时间</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>了解类加载机制尝试了一下不同于域网下的数据库远程连接</t>
+  </si>
+  <si>
+    <t>2019/4/8 20:30--22:30</t>
+  </si>
+  <si>
+    <t>实现数据库连接创建表</t>
+  </si>
+  <si>
+    <t>2019/4/9 12:30--14:30</t>
+  </si>
+  <si>
+    <t>读入文本连接数据库，写入数据</t>
   </si>
   <si>
     <t>2019/4/4 20:30--22:30</t>
@@ -113,11 +125,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,31 +139,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,43 +215,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +226,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -216,62 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +291,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,169 +417,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +482,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,6 +529,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,39 +574,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -553,30 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,145 +590,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,7 +742,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1229,7 +1234,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1296,13 +1301,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="45.3796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
@@ -1338,6 +1343,22 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1400,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1390,7 +1411,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1432,34 +1453,34 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8E3CC-6639-46D2-8065-E02ECAC342D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="8160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="8484" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>日期时间</t>
   </si>
@@ -62,6 +56,24 @@
     <t>了解类加载机制尝试了一下不同于域网下的数据库远程连接</t>
   </si>
   <si>
+    <t>2019/4/8 20:30--22:30</t>
+  </si>
+  <si>
+    <t>JDBC连接数据库</t>
+  </si>
+  <si>
+    <t>2019/4/9 20:30--22:30</t>
+  </si>
+  <si>
+    <t>数据库写入数据</t>
+  </si>
+  <si>
+    <t>2019/4/10 20:30--22:30</t>
+  </si>
+  <si>
+    <t>jDBC事物支持</t>
+  </si>
+  <si>
     <t>2019/4/4 20:30--22:30</t>
   </si>
   <si>
@@ -72,25 +84,25 @@
   </si>
   <si>
     <t>2019/4/6 12:30--14:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/6 12:30--14:32</t>
   </si>
   <si>
     <t>数据库的简单操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,21 +111,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,9 +457,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -138,17 +716,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -406,26 +1028,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -450,26 +1072,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -485,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -494,26 +1117,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -530,26 +1154,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -566,26 +1191,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -602,26 +1228,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="45.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.3796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -637,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -645,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -653,27 +1280,52 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -689,43 +1341,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -741,24 +1394,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8E3CC-6639-46D2-8065-E02ECAC342D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C94965-446C-4D54-9067-E9C1C38EF3D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="8160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>日期时间</t>
   </si>
@@ -69,28 +69,63 @@
   </si>
   <si>
     <t>尝试数据库的远程连接</t>
-  </si>
-  <si>
-    <t>2019/4/6 12:30--14:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019/4/6 12:30--14:32</t>
-  </si>
-  <si>
     <t>数据库的简单操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2019/4/7 16:30--18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2019/4/6 12:30--14:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2019/4/4 12:30--14:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +136,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +178,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +762,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,23 +791,44 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C94965-446C-4D54-9067-E9C1C38EF3D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0AA5F8-0212-430A-86E2-B7B7B12E5F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>日期时间</t>
   </si>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>尝试连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/8 17:00--19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连接成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +773,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,7 +823,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0AA5F8-0212-430A-86E2-B7B7B12E5F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57A543-0A03-4E51-8A5B-ADA5875C751C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>日期时间</t>
   </si>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>数据库连接成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/9 14:00--16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建库表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +781,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,7 +839,12 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57A543-0A03-4E51-8A5B-ADA5875C751C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E790602C-E3CF-4E6C-9F27-37428282628F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>日期时间</t>
   </si>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>创建库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/10 13:30--15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建MAVEN添加依赖和文件规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,13 +789,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -847,7 +855,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E790602C-E3CF-4E6C-9F27-37428282628F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122A00F-0B4A-442E-A214-E04014B9E76E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>日期时间</t>
   </si>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>创建MAVEN添加依赖和文件规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/11 10:00--12:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置smart-context.xml文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +797,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,7 +871,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122A00F-0B4A-442E-A214-E04014B9E76E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D4AAD-3EC9-4929-B17F-2D0A7808C657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>日期时间</t>
   </si>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>配置smart-context.xml文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/12 10:00--12:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring中装配Service,添加TestNG测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,10 +802,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -878,6 +886,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D4AAD-3EC9-4929-B17F-2D0A7808C657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4009D1D-E0C4-4267-B0F9-396BD8169C2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="8160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -153,11 +153,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019/4/12 10:00--12:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring中装配Service,添加TestNG测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/12 16:00--18:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,10 +888,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>日期时间</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>jDBC事物支持</t>
+  </si>
+  <si>
+    <t>2019/4/11 20:30--22:30</t>
+  </si>
+  <si>
+    <t>网络编程</t>
   </si>
   <si>
     <t>2019/4/4 20:30--22:30</t>
@@ -97,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,6 +125,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -133,9 +146,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,22 +191,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -188,8 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +216,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,50 +260,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -264,61 +270,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,121 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +479,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,7 +518,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,26 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,15 +561,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1236,13 +1242,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="45.3796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
@@ -1302,6 +1308,14 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1357,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1354,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1396,18 +1410,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4009D1D-E0C4-4267-B0F9-396BD8169C2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90138846-597D-436A-B790-C2B912B2AAA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="8160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1350" windowWidth="15375" windowHeight="8160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>日期时间</t>
   </si>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>2019/4/12 16:00--18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/14 10:00--14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring MVC配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,10 +810,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -894,6 +902,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F6FFB-E301-4000-8837-C277948A538C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0632373C-07D5-4BFD-84D9-779AE2C3B26C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="1350" windowWidth="15375" windowHeight="8160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>日期时间</t>
   </si>
@@ -161,11 +161,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Spring MVC配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/15 08:30--10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2019/4/14 10:00--14:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spring MVC配置文件</t>
+    <t>练习老师上课内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,10 +818,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,10 +912,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0632373C-07D5-4BFD-84D9-779AE2C3B26C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E97AB3-B8EB-4D53-BA69-5CA5058433F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1350" windowWidth="15375" windowHeight="8160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>日期时间</t>
   </si>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>练习老师上课内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/16 15:00--17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,10 +822,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,6 +930,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\gitbase\LogManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E97AB3-B8EB-4D53-BA69-5CA5058433F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD6C63-3DF1-4F58-BF1A-178B22C128D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>日期时间</t>
   </si>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>2019/4/16 15:00--17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/15 8:30--10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练掌握git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,14 +535,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -572,13 +580,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -610,19 +618,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,12 +638,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -652,13 +668,13 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -688,13 +704,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -724,13 +740,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -754,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -776,13 +792,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -798,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -806,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -824,17 +840,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -850,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -858,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -866,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -874,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -882,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -890,7 +906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -898,7 +914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -906,7 +922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -914,7 +930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -922,7 +938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -930,7 +946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\gitbase\LogManagement\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD6C63-3DF1-4F58-BF1A-178B22C128D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>日期时间</t>
   </si>
@@ -50,6 +44,63 @@
     <t>数据库的配置及简单操作</t>
   </si>
   <si>
+    <t>2019/4/15 8:30--10:30</t>
+  </si>
+  <si>
+    <t>熟练掌握git</t>
+  </si>
+  <si>
+    <t>activemq发送数据、接收数据</t>
+  </si>
+  <si>
+    <t>2019/4/8 18:00-20:00</t>
+  </si>
+  <si>
+    <t>读excel表，写入数据库</t>
+  </si>
+  <si>
+    <t>2019/4/9 15:00-17:00</t>
+  </si>
+  <si>
+    <t>完善程序</t>
+  </si>
+  <si>
+    <t>2019/4/10 19:00-21:00</t>
+  </si>
+  <si>
+    <t>搭建hibernate环境</t>
+  </si>
+  <si>
+    <t>2019/4/11 21:00-23:00</t>
+  </si>
+  <si>
+    <t>hibernate简单程序</t>
+  </si>
+  <si>
+    <t>2019/4/12 21:00-23:00</t>
+  </si>
+  <si>
+    <t>学习hibernate</t>
+  </si>
+  <si>
+    <t>2019/4/15 15:00-17:00</t>
+  </si>
+  <si>
+    <t>实现base层dao、domain</t>
+  </si>
+  <si>
+    <t>2019/4/16 15:00-17:00</t>
+  </si>
+  <si>
+    <t>编写base层service</t>
+  </si>
+  <si>
+    <t>2019/4/18 19:00-21:00</t>
+  </si>
+  <si>
+    <t>实现base层service</t>
+  </si>
+  <si>
     <t>2019/4/4 21:30--23:30</t>
   </si>
   <si>
@@ -71,19 +122,36 @@
     <t>尝试数据库的远程连接</t>
   </si>
   <si>
-    <t>安装数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库的简单操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/7 16:30--18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019/4/4 12:30--14:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2019/4/6 12:30--14:3</t>
     </r>
     <r>
@@ -91,109 +159,78 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2019/4/4 12:30--14:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的简单操作</t>
+  </si>
+  <si>
+    <t>2019/4/7 16:30--18:30</t>
   </si>
   <si>
     <t>尝试连接数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/8 17:00--19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据库连接成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/9 14:00--16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创建库表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/10 13:30--15:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创建MAVEN添加依赖和文件规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/11 10:00--12:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置smart-context.xml文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/12 16:00--18:30</t>
   </si>
   <si>
     <t>Spring中装配Service,添加TestNG测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/12 16:00--18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/14 10:00--14:30</t>
   </si>
   <si>
     <t>Spring MVC配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/15 08:30--10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/14 10:00--14:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>练习老师上课内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/16 15:00--17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/15 8:30--10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练掌握git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,20 +249,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,13 +592,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -248,24 +850,71 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -523,26 +1172,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.9083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6333333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -567,26 +1216,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.9083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.45" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -602,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -611,26 +1261,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.45" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -646,35 +1297,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.9083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.0916666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -690,27 +1342,100 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>43561</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.45" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -727,26 +1452,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="45.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.3666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.725" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -762,43 +1488,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.2666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -814,43 +1541,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.45" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -866,94 +1594,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>日期时间</t>
   </si>
@@ -44,6 +44,63 @@
     <t>数据库的配置及简单操作</t>
   </si>
   <si>
+    <t>2019/4/15 8:30--10:30</t>
+  </si>
+  <si>
+    <t>熟练掌握git</t>
+  </si>
+  <si>
+    <t>activemq发送数据、接收数据</t>
+  </si>
+  <si>
+    <t>2019/4/8 18:00-20:00</t>
+  </si>
+  <si>
+    <t>读excel表，写入数据库</t>
+  </si>
+  <si>
+    <t>2019/4/9 15:00-17:00</t>
+  </si>
+  <si>
+    <t>完善程序</t>
+  </si>
+  <si>
+    <t>2019/4/10 19:00-21:00</t>
+  </si>
+  <si>
+    <t>搭建hibernate环境</t>
+  </si>
+  <si>
+    <t>2019/4/11 21:00-23:00</t>
+  </si>
+  <si>
+    <t>hibernate简单程序</t>
+  </si>
+  <si>
+    <t>2019/4/12 21:00-23:00</t>
+  </si>
+  <si>
+    <t>学习hibernate</t>
+  </si>
+  <si>
+    <t>2019/4/15 15:00-17:00</t>
+  </si>
+  <si>
+    <t>实现base层dao、domain</t>
+  </si>
+  <si>
+    <t>2019/4/16 15:00-17:00</t>
+  </si>
+  <si>
+    <t>编写base层service</t>
+  </si>
+  <si>
+    <t>2019/4/18 19:00-21:00</t>
+  </si>
+  <si>
+    <t>实现base层service</t>
+  </si>
+  <si>
     <t>2019/4/4 21:30--23:30</t>
   </si>
   <si>
@@ -77,7 +134,19 @@
     <t>2019/4/11 20:30--22:30</t>
   </si>
   <si>
-    <t>网络编程</t>
+    <t>了解socket</t>
+  </si>
+  <si>
+    <t>2019/4/12 20:30--22:30</t>
+  </si>
+  <si>
+    <t>练习数据库操作</t>
+  </si>
+  <si>
+    <t>2019/4/20 20:30--22:30</t>
+  </si>
+  <si>
+    <t>了解实现mvn创建项目</t>
   </si>
   <si>
     <t>2019/4/4 20:30--22:30</t>
@@ -89,13 +158,102 @@
     <t>尝试数据库的远程连接</t>
   </si>
   <si>
-    <t>2019/4/6 12:30--14:31</t>
-  </si>
-  <si>
-    <t>2019/4/6 12:30--14:32</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019/4/4 12:30--14:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019/4/6 12:30--14:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
   </si>
   <si>
     <t>数据库的简单操作</t>
+  </si>
+  <si>
+    <t>2019/4/7 16:30--18:30</t>
+  </si>
+  <si>
+    <t>尝试连接数据库</t>
+  </si>
+  <si>
+    <t>2019/4/8 17:00--19:00</t>
+  </si>
+  <si>
+    <t>数据库连接成功</t>
+  </si>
+  <si>
+    <t>2019/4/9 14:00--16:00</t>
+  </si>
+  <si>
+    <t>创建库表</t>
+  </si>
+  <si>
+    <t>2019/4/10 13:30--15:30</t>
+  </si>
+  <si>
+    <t>创建MAVEN添加依赖和文件规划</t>
+  </si>
+  <si>
+    <t>2019/4/11 10:00--12:10</t>
+  </si>
+  <si>
+    <t>配置smart-context.xml文件</t>
+  </si>
+  <si>
+    <t>2019/4/12 16:00--18:30</t>
+  </si>
+  <si>
+    <t>Spring中装配Service,添加TestNG测试</t>
+  </si>
+  <si>
+    <t>2019/4/14 10:00--14:30</t>
+  </si>
+  <si>
+    <t>Spring MVC配置文件</t>
+  </si>
+  <si>
+    <t>2019/4/15 08:30--10:30</t>
+  </si>
+  <si>
+    <t>练习老师上课内容</t>
+  </si>
+  <si>
+    <t>2019/4/16 15:00--17:00</t>
   </si>
 </sst>
 </file>
@@ -103,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,16 +283,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,69 +373,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,42 +405,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -270,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +619,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,52 +669,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,16 +706,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,19 +739,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,116 +760,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +877,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,9 +1213,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.9074074074074" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.6296296296296" style="1" customWidth="1"/>
     <col min="3" max="4" width="26.6296296296296" customWidth="1"/>
   </cols>
@@ -1092,10 +1259,10 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.9074074074074" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.4537037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1131,16 +1298,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.3796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.4537037037037" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3703703703704" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1157,6 +1324,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1168,16 +1343,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.9074074074074" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.0925925925926" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1194,6 +1369,78 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>43561</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1211,10 +1458,10 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.6296296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.4537037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1242,16 +1489,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="45.3796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.3703703703704" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1272,50 +1519,66 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1330,12 +1593,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.2685185185185" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1357,18 +1620,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1380,16 +1643,16 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.6296296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.4537037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1409,23 +1672,93 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
+      <c r="A4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>日期时间</t>
   </si>
@@ -42,6 +42,42 @@
   </si>
   <si>
     <t>数据库的配置及简单操作</t>
+  </si>
+  <si>
+    <t>2019/4/4 9:00--11:00</t>
+  </si>
+  <si>
+    <t>单元测试</t>
+  </si>
+  <si>
+    <t>2019/4/8 9:00--11:00</t>
+  </si>
+  <si>
+    <t>把表格读取到数据库里</t>
+  </si>
+  <si>
+    <t>2019/4/15 9:00--11:00</t>
+  </si>
+  <si>
+    <t>Dao模块的建立</t>
+  </si>
+  <si>
+    <t>2019/4/16 9:00--11:00</t>
+  </si>
+  <si>
+    <t>添加hibernate-entitymanager</t>
+  </si>
+  <si>
+    <t>2019/4/17 9:00--11:00</t>
+  </si>
+  <si>
+    <t>模拟上课内容建立device实体类</t>
+  </si>
+  <si>
+    <t>2019/4/21 9:00--11:00</t>
+  </si>
+  <si>
+    <t>学习maven命令</t>
   </si>
   <si>
     <t>2019/4/15 8:30--10:30</t>
@@ -261,10 +297,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -276,6 +312,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -283,7 +326,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +355,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -306,7 +425,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,54 +433,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,44 +454,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -428,187 +464,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +658,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -629,6 +680,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,21 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -676,16 +727,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,21 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,13 +1289,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.9074074074074" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.4537037037037" style="1" customWidth="1"/>
@@ -1287,6 +1323,54 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1412,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1376,71 +1460,71 @@
         <v>43561</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1575,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1519,66 +1603,66 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1620,18 +1704,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1673,87 +1757,87 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>日期时间</t>
   </si>
@@ -39,6 +39,24 @@
   </si>
   <si>
     <t>安装配置数据库</t>
+  </si>
+  <si>
+    <t>2019/4/15 21:00--23:00</t>
+  </si>
+  <si>
+    <t>配置server及简单操作</t>
+  </si>
+  <si>
+    <t>2019/4/17 8:30--10:30</t>
+  </si>
+  <si>
+    <t>学习maven命令、domain下实体创建</t>
+  </si>
+  <si>
+    <t>2019/4/21 21:30--23:30</t>
+  </si>
+  <si>
+    <t>解决项目导入时的错误和警告问题</t>
   </si>
   <si>
     <t>数据库的配置及简单操作</t>
@@ -299,8 +317,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -318,6 +336,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -326,7 +374,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,8 +449,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,106 +472,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -464,109 +482,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,73 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,32 +673,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -708,11 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +720,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +762,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,130 +796,130 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,16 +1261,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.9074074074074" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5555555555556" style="1" customWidth="1"/>
     <col min="3" max="4" width="26.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1278,6 +1296,30 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1291,8 +1333,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1322,55 +1364,55 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1412,10 +1454,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1460,71 +1502,71 @@
         <v>43561</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1603,66 +1645,66 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1704,18 +1746,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1757,87 +1799,87 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E97AB3-B8EB-4D53-BA69-5CA5058433F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20475" windowHeight="8385" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>日期时间</t>
   </si>
@@ -71,19 +65,36 @@
     <t>尝试数据库的远程连接</t>
   </si>
   <si>
-    <t>安装数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库的简单操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/7 16:30--18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019/4/4 12:30--14:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2019/4/6 12:30--14:3</t>
     </r>
     <r>
@@ -91,101 +102,111 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2019/4/4 12:30--14:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的简单操作</t>
+  </si>
+  <si>
+    <t>2019/4/7 16:30--18:30</t>
   </si>
   <si>
     <t>尝试连接数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/8 17:00--19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据库连接成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/9 14:00--16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创建库表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/10 13:30--15:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创建MAVEN添加依赖和文件规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/11 10:00--12:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置smart-context.xml文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/12 16:00--18:30</t>
   </si>
   <si>
     <t>Spring中装配Service,添加TestNG测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/12 16:00--18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/14 10:00--14:30</t>
   </si>
   <si>
     <t>Spring MVC配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/15 08:30--10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/14 10:00--14:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>练习老师上课内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019/4/16 15:00--17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/18 14:00--18:00</t>
+  </si>
+  <si>
+    <t>2019/4/19 18:00--20:00</t>
+  </si>
+  <si>
+    <t>简化代码（抽取相同代码作为工具类）</t>
+  </si>
+  <si>
+    <t>2019/4/20 18:00--20:00</t>
+  </si>
+  <si>
+    <t>更安全的SQL语句</t>
+  </si>
+  <si>
+    <t>2019/4/21 10:00--12:00</t>
+  </si>
+  <si>
+    <t>简单的登录功能</t>
+  </si>
+  <si>
+    <t>2019/4/22 19:00--21:00</t>
+  </si>
+  <si>
+    <t>事务管理（转账问题）</t>
+  </si>
+  <si>
+    <t>2019/4/23 10:30--12:30</t>
+  </si>
+  <si>
+    <t>SQL中上传图片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,29 +215,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -224,9 +568,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -240,24 +826,68 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -515,26 +1145,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -559,26 +1189,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -603,26 +1234,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -639,26 +1271,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -675,26 +1308,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -711,26 +1345,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="45.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -754,7 +1389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -763,26 +1398,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -798,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -806,7 +1442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,26 +1451,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -850,94 +1487,139 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>日期时间</t>
   </si>
@@ -195,18 +195,30 @@
   <si>
     <t>SQL中上传图片</t>
   </si>
+  <si>
+    <t>2019/4/24 18:30--20:30</t>
+  </si>
+  <si>
+    <t>小组讨论实例之间的关系</t>
+  </si>
+  <si>
+    <t>2019/4/24 16:00--19:00</t>
+  </si>
+  <si>
+    <t>批处理</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,35 +228,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,8 +249,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,22 +318,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,11 +340,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,42 +363,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -375,181 +380,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,11 +574,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,26 +609,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,24 +630,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,10 +831,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1459,10 +1464,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1617,6 +1622,22 @@
         <v>44</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>日期时间</t>
   </si>
@@ -163,9 +163,15 @@
     <t>2019/4/16 15:00--17:00</t>
   </si>
   <si>
+    <t>接口</t>
+  </si>
+  <si>
     <t>2019/4/18 14:00--18:00</t>
   </si>
   <si>
+    <t>泛型</t>
+  </si>
+  <si>
     <t>2019/4/19 18:00--20:00</t>
   </si>
   <si>
@@ -206,6 +212,12 @@
   </si>
   <si>
     <t>批处理</t>
+  </si>
+  <si>
+    <t>2019/4/26 18:30--21:00</t>
+  </si>
+  <si>
+    <t>数据库连接池</t>
   </si>
 </sst>
 </file>
@@ -213,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -228,7 +240,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +284,84 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,14 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -264,112 +382,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,187 +392,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +586,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +600,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +651,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -638,39 +683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -679,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,10 +1476,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1572,70 +1584,84 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>日期时间</t>
   </si>
@@ -208,7 +208,7 @@
     <t>小组讨论实例之间的关系</t>
   </si>
   <si>
-    <t>2019/4/24 16:00--19:00</t>
+    <t>2019/4/25 16:00--19:00</t>
   </si>
   <si>
     <t>批处理</t>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>数据库连接池</t>
+  </si>
+  <si>
+    <t>2019/4/27 13:30--15:00</t>
   </si>
 </sst>
 </file>
@@ -239,8 +242,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +363,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -269,44 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,69 +385,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,11 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,21 +609,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,17 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +677,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1476,10 +1479,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1664,6 +1667,14 @@
         <v>52</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8385" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="19890" windowHeight="8115" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>日期时间</t>
   </si>
@@ -222,6 +222,12 @@
   <si>
     <t>2019/4/27 13:30--15:00</t>
   </si>
+  <si>
+    <t>2019/4/29 15:30--18:00</t>
+  </si>
+  <si>
+    <t>DAO抽取JDBC工具类</t>
+  </si>
 </sst>
 </file>
 
@@ -229,8 +235,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -242,6 +248,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -265,43 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,14 +362,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -339,17 +377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,29 +391,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -395,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +592,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -613,17 +643,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,26 +692,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,10 +1485,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1675,6 +1681,14 @@
         <v>52</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
     <sheet name="宋明硕" sheetId="3" r:id="rId2"/>
-    <sheet name="张晓芳" sheetId="4" r:id="rId3"/>
-    <sheet name="缑曼曼" sheetId="5" r:id="rId4"/>
+    <sheet name="缑曼曼" sheetId="5" r:id="rId3"/>
+    <sheet name="张晓芳" sheetId="4" r:id="rId4"/>
     <sheet name="肖森" sheetId="7" r:id="rId5"/>
     <sheet name="张奔" sheetId="1" r:id="rId6"/>
     <sheet name="谢国欣" sheetId="8" r:id="rId7"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>日期时间</t>
   </si>
@@ -228,16 +228,22 @@
   <si>
     <t>DAO抽取JDBC工具类</t>
   </si>
+  <si>
+    <t>2019/5/3 15:30--17:00</t>
+  </si>
+  <si>
+    <t>eclipse创建web应用</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -249,14 +255,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,20 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -300,6 +292,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -309,16 +338,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,60 +391,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -401,31 +407,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,151 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,26 +616,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,21 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -678,17 +684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +718,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,13 +1277,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1308,13 +1314,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1485,10 +1491,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1689,6 +1695,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>日期时间</t>
   </si>
@@ -234,16 +234,22 @@
   <si>
     <t>eclipse创建web应用</t>
   </si>
+  <si>
+    <t>2019/5/4 18:00--20:00</t>
+  </si>
+  <si>
+    <t>安装tomcat，配置启动</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -263,6 +269,75 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,9 +351,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,44 +375,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,28 +390,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -373,30 +403,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -407,187 +413,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +604,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,21 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,11 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,26 +690,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1491,10 +1497,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1703,6 +1709,14 @@
         <v>57</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>日期时间</t>
   </si>
@@ -240,15 +240,21 @@
   <si>
     <t>安装tomcat，配置启动</t>
   </si>
+  <si>
+    <t>2019/5/5 17:30--20:00</t>
+  </si>
+  <si>
+    <t>了解类加载机制</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -282,6 +288,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -305,16 +386,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,82 +409,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -425,19 +431,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,31 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,42 +581,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,67 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +618,71 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,71 +710,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,10 +718,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +730,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1497,10 +1503,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1717,6 +1723,14 @@
         <v>59</v>
       </c>
     </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>日期时间</t>
   </si>
@@ -246,15 +246,21 @@
   <si>
     <t>了解类加载机制</t>
   </si>
+  <si>
+    <t>2019/5/6 16:30--18:30</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -267,12 +273,134 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -287,128 +415,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -419,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,50 +616,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -668,6 +630,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,23 +676,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,10 +724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,133 +736,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1503,10 +1509,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1731,6 +1737,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>日期时间</t>
   </si>
@@ -252,14 +252,20 @@
   <si>
     <t>IOC</t>
   </si>
+  <si>
+    <t>2019/5/8 17:00--20:00</t>
+  </si>
+  <si>
+    <t>在用户中添加方法</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -273,21 +279,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,8 +314,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +345,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -329,92 +421,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -425,187 +431,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,26 +625,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,15 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -701,7 +683,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,6 +698,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -724,145 +730,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1509,10 +1515,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1745,6 +1751,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>日期时间</t>
   </si>
@@ -258,6 +258,12 @@
   <si>
     <t>在用户中添加方法</t>
   </si>
+  <si>
+    <t>2019/5/9 15:40--18:00</t>
+  </si>
+  <si>
+    <t>用户的增删改查</t>
+  </si>
 </sst>
 </file>
 
@@ -265,9 +271,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -279,7 +285,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,8 +381,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,115 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,25 +437,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,151 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,8 +634,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,17 +690,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,46 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +748,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1515,10 +1521,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1759,6 +1765,14 @@
         <v>65</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>日期时间</t>
   </si>
@@ -264,16 +264,28 @@
   <si>
     <t>用户的增删改查</t>
   </si>
+  <si>
+    <t>2019/5/10 18:00--20:00</t>
+  </si>
+  <si>
+    <t>web发布</t>
+  </si>
+  <si>
+    <t>2019/5/11 19:00--21:00</t>
+  </si>
+  <si>
+    <t>登录功能建表与页面的搭建、数据库的配置</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -292,14 +304,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,11 +394,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,16 +417,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,67 +439,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -437,187 +449,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +640,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,17 +726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -674,60 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,16 +1533,16 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B25" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1771,6 +1783,22 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>日期时间</t>
   </si>
@@ -87,26 +87,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2019/4/6 12:30--14:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
+    <t>2019/4/6 12:30--14:30</t>
   </si>
   <si>
     <t>数据库的简单操作</t>
@@ -275,6 +256,12 @@
   </si>
   <si>
     <t>登录功能建表与页面的搭建、数据库的配置</t>
+  </si>
+  <si>
+    <t>2019/5/12 15:00--19:00</t>
+  </si>
+  <si>
+    <t>生成图片、注册验证码静态界面</t>
   </si>
 </sst>
 </file>
@@ -282,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -297,14 +284,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +316,89 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,98 +412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -426,17 +421,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -449,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,17 +630,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +686,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,39 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -748,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1533,10 +1520,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B$1:B$1048576"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1801,6 +1788,14 @@
         <v>71</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LogManagement/doc/学习记录.xlsx
+++ b/LogManagement/doc/学习记录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\LogManagement\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EEC48C-CA7E-4C26-91A7-9A22C7E8B16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8115" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>日期时间</t>
   </si>
@@ -263,18 +269,20 @@
   <si>
     <t>生成图片、注册验证码静态界面</t>
   </si>
+  <si>
+    <t>2019/5/13 17:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 注册，request,response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,345 +291,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -629,251 +313,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -894,61 +336,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1206,26 +604,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1250,27 +648,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1286,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1295,27 +692,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1332,27 +728,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1369,27 +764,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1406,27 +800,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1459,27 +852,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1512,27 +904,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1572,7 +963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1588,7 +979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1604,7 +995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1612,7 +1003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1620,7 +1011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1628,7 +1019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1636,7 +1027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1644,7 +1035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1652,7 +1043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1660,7 +1051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1668,7 +1059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1676,7 +1067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1684,7 +1075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1692,7 +1083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1700,7 +1091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1716,7 +1107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1724,7 +1115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1732,7 +1123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -1740,7 +1131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -1748,7 +1139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1756,7 +1147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -1764,7 +1155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -1772,7 +1163,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -1780,7 +1171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -1788,7 +1179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1796,9 +1187,17 @@
         <v>73</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>